--- a/biology/Zoologie/Plecia_livida/Plecia_livida.xlsx
+++ b/biology/Zoologie/Plecia_livida/Plecia_livida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Penthetria brevipennis, Penthetria livida, Plecia brevipennis, Plecia brevithoracis, Plecia cerestensis, Plecia constricta, Plecia flichei, Plecia fusciventris, Plecia goreti, Plecia maculitarsis, Plecia maculiventris, Protomyia livida, Protomyia brevipennis
 Plecia livida est une espèce fossile de mouche ou diptère de la famille des Bibionidae et du genre Plecia.
@@ -514,63 +526,284 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Descriptions initiales
-En 1849 l'espèce Protomyia livida est décrite par le naturaliste suisse Oswald Heer (1809-1883)[1],[2]. 
-En 1856 l'espèce Protomyia brevipennis est décrite par Oswald Heer[3].
-En 1937 les huit espèces Plecia constricta, Plecia flichei, Plecia fusciventris, Plecia goreti, Plecia brevithoracis, Plecia cerestensis, Plecia maculitarsis, Plecia maculiventris sont décrites par le paléontologue français Nicolas Théobald (1903-1981)[4],[2]. 
-Citations
-En 1856 l'espèce Protomyia livida est citée par les entomologistes allemands Christian  Giebel (d)[5] et par Oswald Heer[3],[2].
-Renommage
-En 1907 l'entomologiste autrichien Anton Handlirsch renomme l'espèce Protomyia livida en Penthetria livida[6].
-En 1937 Nicolas Théobald renomme les deux espèces Protomyia livida (ou Penthetria livida) en Plecia livida et Protomyia brevipennis en Plecia brevipennis en même temps qu'il décrit huit autres espèces de Plecia[4].
-En 1994 Neal Evenhuis renomme l'espèce Protomyia livida (ou Plecia livida) en Penthetria livida ainsi que Plecia brevipennis en Penthetria brevipennis[7].
-En 2017 John Skartveit et André Nel renomme Protomyia livida (ou Penthetria livida) en Plecia livida, en même temps que les neuf espèces sont déclarées synonymes, Plecia constricta, Plecia flichei, Plecia fusciventris, Plecia goreti, Plecia brevithoracis, Plecia cerestensis, Plecia maculitaris, Plecia breviopennis, Plecia maculiventris[8],[2]
-Fossiles
-Selon Paleobiology Database en 2023, quinze collections comprenant trente-deux fossiles sont référencées, toutes de l'Oligocène (Rupélien et Chattien) de France. Ces collections viennent de Céreste, de Bois d'Asson (sur la commune de Saint-Maime), de Barbeiras (lieu-dit de Céreste), collection Goret au MNHNP[9], du PNR du Luberon, de l'École nationale des eaux et forêts de Nancy, Chadrat, lieu-dit sur la commune de Saint-Saturnin (Auvergne) collection de l'université Claude Bernard de Lyon, Aix-en-Provence collections de l'institut géologique de Montpellier, de Nancy et de Lyon, ainsi que du Muséum d'histoire naturelle de Marseille et Vitrolles[2].
-Étymologie
-L'épithète spécifique goreti est un hommage au collecteur d'échantillons, un jeune officier forestier, monsieur Goret[10].
-L'épithète spécifique flichei est un hommage à Paul Fliche (1836-1908) de l'École nationale des eaux et forêts de Nancy, qui a permis la collecte de nombreux échantillons fossiles pour l'exposition universelle de 1878[10].
+          <t>Descriptions initiales</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1849 l'espèce Protomyia livida est décrite par le naturaliste suisse Oswald Heer (1809-1883),. 
+En 1856 l'espèce Protomyia brevipennis est décrite par Oswald Heer.
+En 1937 les huit espèces Plecia constricta, Plecia flichei, Plecia fusciventris, Plecia goreti, Plecia brevithoracis, Plecia cerestensis, Plecia maculitarsis, Plecia maculiventris sont décrites par le paléontologue français Nicolas Théobald (1903-1981),. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Plecia_livida</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_livida</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Citations</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1856 l'espèce Protomyia livida est citée par les entomologistes allemands Christian  Giebel (d) et par Oswald Heer,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Plecia_livida</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_livida</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Renommage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1907 l'entomologiste autrichien Anton Handlirsch renomme l'espèce Protomyia livida en Penthetria livida.
+En 1937 Nicolas Théobald renomme les deux espèces Protomyia livida (ou Penthetria livida) en Plecia livida et Protomyia brevipennis en Plecia brevipennis en même temps qu'il décrit huit autres espèces de Plecia.
+En 1994 Neal Evenhuis renomme l'espèce Protomyia livida (ou Plecia livida) en Penthetria livida ainsi que Plecia brevipennis en Penthetria brevipennis.
+En 2017 John Skartveit et André Nel renomme Protomyia livida (ou Penthetria livida) en Plecia livida, en même temps que les neuf espèces sont déclarées synonymes, Plecia constricta, Plecia flichei, Plecia fusciventris, Plecia goreti, Plecia brevithoracis, Plecia cerestensis, Plecia maculitaris, Plecia breviopennis, Plecia maculiventris,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Plecia_livida</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_livida</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, quinze collections comprenant trente-deux fossiles sont référencées, toutes de l'Oligocène (Rupélien et Chattien) de France. Ces collections viennent de Céreste, de Bois d'Asson (sur la commune de Saint-Maime), de Barbeiras (lieu-dit de Céreste), collection Goret au MNHNP, du PNR du Luberon, de l'École nationale des eaux et forêts de Nancy, Chadrat, lieu-dit sur la commune de Saint-Saturnin (Auvergne) collection de l'université Claude Bernard de Lyon, Aix-en-Provence collections de l'institut géologique de Montpellier, de Nancy et de Lyon, ainsi que du Muséum d'histoire naturelle de Marseille et Vitrolles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Plecia_livida</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_livida</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique goreti est un hommage au collecteur d'échantillons, un jeune officier forestier, monsieur Goret.
+L'épithète spécifique flichei est un hommage à Paul Fliche (1836-1908) de l'École nationale des eaux et forêts de Nancy, qui a permis la collecte de nombreux échantillons fossiles pour l'exposition universelle de 1878.
 L'épithète spécifique cerestensis est pour signaler que le lieu type est Céreste dans les Alpes-de-Haute-Provence.
 Les épithètes spécifiques latines brevithoracis, constricta, fusciventris, livida, maculiventris, maculitarsis, brevipennis signifient respectivement « à poitrine courte, resserrée, à ventre brun, contusionnée, à ventre tacheté, à taches tarsiennes, à poils courts ».
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Plecia_livida</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Plecia_livida</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937[4],[note 1] :
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937,[note 1] :
 Plecia goreti 
-« Insecte ayant la tête et le thorax noirs, l'abdomen brunâtre, les ailes légèrement jaunâtres. Tête arrondie, deux yeux non contigus, antennes plus courtes que la tête, articles courts et homonomes. Thorax ovale, non renflé, scutellum court, arrondi à l'arrière. Abdomen allongé, fusiforme, sept segments, le dernier montrant deux lamelles aplaties faisant partie de l'appareil génital ♀. Pattes moyennes, tibia I avec un éperon, tibias II avec deux éperons. »[11].
-Dimensions
-La longueur totale est de 7,75 mm ; la tête a une longueur de 0,75 mm ; le thorax a une longueur de 2 mm ; l'abdomen a une longueur de 5,5 mm ; les ailes ont une longueur de 6,25 mm[11].
-Affinités
+« Insecte ayant la tête et le thorax noirs, l'abdomen brunâtre, les ailes légèrement jaunâtres. Tête arrondie, deux yeux non contigus, antennes plus courtes que la tête, articles courts et homonomes. Thorax ovale, non renflé, scutellum court, arrondi à l'arrière. Abdomen allongé, fusiforme, sept segments, le dernier montrant deux lamelles aplaties faisant partie de l'appareil génital ♀. Pattes moyennes, tibia I avec un éperon, tibias II avec deux éperons. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Plecia_livida</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_livida</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 7,75 mm ; la tête a une longueur de 0,75 mm ; le thorax a une longueur de 2 mm ; l'abdomen a une longueur de 5,5 mm ; les ailes ont une longueur de 6,25 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Plecia_livida</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plecia_livida</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Pour P. goreti : 
-« Cette espèce de Plecia se rapproche de P. livida Heer par la taille et la forme du corps ; mais elle s'en distingue par les ailes de coloration jaunâtre. C'est une des formes les plus fréquentes à Céreste : treize exemplaires. »[11].
+« Cette espèce de Plecia se rapproche de P. livida Heer par la taille et la forme du corps ; mais elle s'en distingue par les ailes de coloration jaunâtre. C'est une des formes les plus fréquentes à Céreste : treize exemplaires. ».
 </t>
         </is>
       </c>
